--- a/Pro_RsCAN/CAN底层接口定义阶段完成.xlsx
+++ b/Pro_RsCAN/CAN底层接口定义阶段完成.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>No.</t>
   </si>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Errors in RS-CAN RAM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>错误中断函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -250,9 +246,6 @@
 监测错误状态转换(error warning, error passive, bus off entry, and bus off recovery)
 Reads the error counter.
  DLC errors.</t>
-  </si>
-  <si>
-    <t>CanBusOffState</t>
   </si>
   <si>
     <r>
@@ -455,12 +448,36 @@
   <si>
     <t>包含global error中断 receive FIFO中断和CANm的各种中断处理添加完成</t>
   </si>
+  <si>
+    <t>留有接口</t>
+  </si>
+  <si>
+    <t>bool CanBusOffState(uint8_t channel)</t>
+  </si>
+  <si>
+    <t>调用底层接口获取bus-off的状态</t>
+  </si>
+  <si>
+    <t>channel：选择需要查询的channel的索引</t>
+  </si>
+  <si>
+    <t>Errors in RS-CAN RAM</t>
+  </si>
+  <si>
+    <t>已在底层实现RSCAN_Ecc_Init（）和RSCAN_Ecc_Err_Checked(void)函数用于初始化ecc检查和获取检查结果</t>
+  </si>
+  <si>
+    <t>调用初始化函数重新初始化</t>
+  </si>
+  <si>
+    <t>擦出所有的CAN想关寄存器的配置，恢复为初始值</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +570,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -956,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1066,6 +1102,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1073,6 +1118,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,22 +1147,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1857,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E29"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1908,12 +1956,12 @@
       <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1931,26 +1979,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -1963,13 +2011,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="26"/>
@@ -1989,13 +2037,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="26"/>
@@ -2003,10 +2051,10 @@
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
       <c r="K7" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -2019,23 +2067,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L8" s="16"/>
       <c r="N8"/>
@@ -2049,23 +2097,23 @@
         <v>5</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="31"/>
       <c r="K9" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="16"/>
       <c r="N9"/>
@@ -2079,21 +2127,21 @@
         <v>6</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L10" s="16"/>
       <c r="N10"/>
@@ -2106,43 +2154,47 @@
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="15"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="L11" s="16"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="1:17" s="4" customFormat="1">
+    <row r="12" spans="1:17" s="4" customFormat="1" ht="24">
       <c r="A12" s="5"/>
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="15"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="L12" s="16"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -2155,23 +2207,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="L13" s="16"/>
       <c r="N13"/>
@@ -2184,19 +2236,21 @@
       <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>41</v>
+      <c r="C14" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="15"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="37" t="s">
+        <v>88</v>
+      </c>
       <c r="L14" s="16"/>
       <c r="N14"/>
       <c r="O14"/>
@@ -2208,11 +2262,11 @@
       <c r="B15" s="10">
         <v>11</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>44</v>
+      <c r="C15" s="52" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -2220,31 +2274,35 @@
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="15"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="16"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" s="4" customFormat="1">
+    <row r="16" spans="1:17" s="4" customFormat="1" ht="60">
       <c r="A16" s="5"/>
       <c r="B16" s="10">
         <v>12</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>36</v>
+      <c r="C16" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="L16" s="16"/>
       <c r="N16"/>
       <c r="O16"/>
@@ -2257,17 +2315,17 @@
         <v>13</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="15"/>
       <c r="L17" s="16"/>
       <c r="N17"/>
@@ -2281,23 +2339,23 @@
         <v>14</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
       <c r="J18" s="31"/>
       <c r="K18" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L18" s="16"/>
       <c r="N18"/>
@@ -2311,19 +2369,19 @@
         <v>15</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="15"/>
       <c r="L19" s="16"/>
       <c r="N19"/>
@@ -2337,23 +2395,23 @@
         <v>16</v>
       </c>
       <c r="C20" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="L20" s="16"/>
       <c r="N20"/>
@@ -2366,11 +2424,11 @@
       <c r="B21" s="10">
         <v>17</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>13</v>
+      <c r="C21" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -2378,7 +2436,9 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="54" t="s">
+        <v>93</v>
+      </c>
       <c r="L21" s="22"/>
       <c r="N21"/>
       <c r="O21"/>
@@ -2392,15 +2452,15 @@
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="15"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="16"/>
       <c r="N22"/>
       <c r="O22"/>
@@ -2413,26 +2473,26 @@
         <v>19</v>
       </c>
       <c r="C23" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="L23" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
@@ -2445,19 +2505,19 @@
         <v>20</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
       <c r="N24"/>
@@ -2471,19 +2531,19 @@
         <v>21</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="15"/>
       <c r="L25" s="16"/>
       <c r="N25"/>
@@ -2497,17 +2557,17 @@
         <v>22</v>
       </c>
       <c r="C26" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="50"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="N26"/>
@@ -2521,17 +2581,17 @@
         <v>23</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="E27" s="38"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="15"/>
       <c r="L27" s="16"/>
       <c r="N27"/>
@@ -2545,17 +2605,17 @@
         <v>24</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="E28" s="38"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
       <c r="N28"/>
@@ -2569,17 +2629,17 @@
         <v>25</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="E29" s="39"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="15"/>
       <c r="L29" s="16"/>
       <c r="N29"/>
@@ -2594,10 +2654,10 @@
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="N30"/>
@@ -2612,10 +2672,10 @@
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="48"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="23"/>
       <c r="L31" s="24"/>
       <c r="N31"/>
@@ -2624,7 +2684,19 @@
       <c r="Q31"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="E25:E29"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="G20:J20"/>
@@ -2637,16 +2709,6 @@
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
